--- a/natmiOut/OldD4/LR-pairs_lrc2p/Efnb2-Epha3.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Efnb2-Epha3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,55 +531,55 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>40.9918137072448</v>
+        <v>41.519606</v>
       </c>
       <c r="H2">
-        <v>40.9918137072448</v>
+        <v>124.558818</v>
       </c>
       <c r="I2">
-        <v>0.7519725931098855</v>
+        <v>0.7305114279806179</v>
       </c>
       <c r="J2">
-        <v>0.7519725931098855</v>
+        <v>0.7630546295388222</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>27.5280706978521</v>
+        <v>0.030493</v>
       </c>
       <c r="N2">
-        <v>27.5280706978521</v>
+        <v>0.091479</v>
       </c>
       <c r="O2">
-        <v>0.9924148126284865</v>
+        <v>0.001018637778668347</v>
       </c>
       <c r="P2">
-        <v>0.9924148126284865</v>
+        <v>0.001021037349570579</v>
       </c>
       <c r="Q2">
-        <v>1128.425545766218</v>
+        <v>1.266057345758</v>
       </c>
       <c r="R2">
-        <v>1128.425545766218</v>
+        <v>11.394516111822</v>
       </c>
       <c r="S2">
-        <v>0.7462687400929041</v>
+        <v>0.0007441265382900189</v>
       </c>
       <c r="T2">
-        <v>0.7462687400929041</v>
+        <v>0.0007791072765218793</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,60 +593,60 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>40.9918137072448</v>
+        <v>41.519606</v>
       </c>
       <c r="H3">
-        <v>40.9918137072448</v>
+        <v>124.558818</v>
       </c>
       <c r="I3">
-        <v>0.7519725931098855</v>
+        <v>0.7305114279806179</v>
       </c>
       <c r="J3">
-        <v>0.7519725931098855</v>
+        <v>0.7630546295388222</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.21040150908917</v>
+        <v>29.65321533333333</v>
       </c>
       <c r="N3">
-        <v>0.21040150908917</v>
+        <v>88.95964599999999</v>
       </c>
       <c r="O3">
-        <v>0.007585187371513531</v>
+        <v>0.990584245483253</v>
       </c>
       <c r="P3">
-        <v>0.007585187371513531</v>
+        <v>0.9929177316168408</v>
       </c>
       <c r="Q3">
-        <v>8.62473946430643</v>
+        <v>1231.189817273159</v>
       </c>
       <c r="R3">
-        <v>8.62473946430643</v>
+        <v>11080.70835545843</v>
       </c>
       <c r="S3">
-        <v>0.005703853016981387</v>
+        <v>0.723633111703074</v>
       </c>
       <c r="T3">
-        <v>0.005703853016981387</v>
+        <v>0.7576504718614162</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.73919381170976</v>
+        <v>41.519606</v>
       </c>
       <c r="H4">
-        <v>6.73919381170976</v>
+        <v>124.558818</v>
       </c>
       <c r="I4">
-        <v>0.1236268558950303</v>
+        <v>0.7305114279806179</v>
       </c>
       <c r="J4">
-        <v>0.1236268558950303</v>
+        <v>0.7630546295388222</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>27.5280706978521</v>
+        <v>0.04031433333333333</v>
       </c>
       <c r="N4">
-        <v>27.5280706978521</v>
+        <v>0.120943</v>
       </c>
       <c r="O4">
-        <v>0.9924148126284865</v>
+        <v>0.001346725574891351</v>
       </c>
       <c r="P4">
-        <v>0.9924148126284865</v>
+        <v>0.001349898011227873</v>
       </c>
       <c r="Q4">
-        <v>185.5170036952736</v>
+        <v>1.673835236152667</v>
       </c>
       <c r="R4">
-        <v>185.5170036952736</v>
+        <v>15.064517125374</v>
       </c>
       <c r="S4">
-        <v>0.1226891230289154</v>
+        <v>0.0009837984228118993</v>
       </c>
       <c r="T4">
-        <v>0.1226891230289154</v>
+        <v>0.001030045926872677</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -720,57 +720,57 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.73919381170976</v>
+        <v>41.519606</v>
       </c>
       <c r="H5">
-        <v>6.73919381170976</v>
+        <v>124.558818</v>
       </c>
       <c r="I5">
-        <v>0.1236268558950303</v>
+        <v>0.7305114279806179</v>
       </c>
       <c r="J5">
-        <v>0.1236268558950303</v>
+        <v>0.7630546295388222</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.21040150908917</v>
+        <v>0.211054</v>
       </c>
       <c r="N5">
-        <v>0.21040150908917</v>
+        <v>0.422108</v>
       </c>
       <c r="O5">
-        <v>0.007585187371513531</v>
+        <v>0.007050391163187267</v>
       </c>
       <c r="P5">
-        <v>0.007585187371513531</v>
+        <v>0.00471133302236074</v>
       </c>
       <c r="Q5">
-        <v>1.417936548028129</v>
+        <v>8.762878924724001</v>
       </c>
       <c r="R5">
-        <v>1.417936548028129</v>
+        <v>52.577273548344</v>
       </c>
       <c r="S5">
-        <v>0.0009377328661149073</v>
+        <v>0.00515039131644186</v>
       </c>
       <c r="T5">
-        <v>0.0009377328661149073</v>
+        <v>0.003595004474011494</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,60 +779,60 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.174247061003226</v>
+        <v>7.183879666666667</v>
       </c>
       <c r="H6">
-        <v>0.174247061003226</v>
+        <v>21.551639</v>
       </c>
       <c r="I6">
-        <v>0.003196467842095372</v>
+        <v>0.1263958572665066</v>
       </c>
       <c r="J6">
-        <v>0.003196467842095372</v>
+        <v>0.1320266053993819</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>27.5280706978521</v>
+        <v>0.030493</v>
       </c>
       <c r="N6">
-        <v>27.5280706978521</v>
+        <v>0.091479</v>
       </c>
       <c r="O6">
-        <v>0.9924148126284865</v>
+        <v>0.001018637778668347</v>
       </c>
       <c r="P6">
-        <v>0.9924148126284865</v>
+        <v>0.001021037349570579</v>
       </c>
       <c r="Q6">
-        <v>4.796685414189754</v>
+        <v>0.2190580426756667</v>
       </c>
       <c r="R6">
-        <v>4.796685414189754</v>
+        <v>1.971522384081</v>
       </c>
       <c r="S6">
-        <v>0.003172222034586061</v>
+        <v>0.0001287515952788358</v>
       </c>
       <c r="T6">
-        <v>0.003172222034586061</v>
+        <v>0.0001348040952497857</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -841,122 +841,122 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.174247061003226</v>
+        <v>7.183879666666667</v>
       </c>
       <c r="H7">
-        <v>0.174247061003226</v>
+        <v>21.551639</v>
       </c>
       <c r="I7">
-        <v>0.003196467842095372</v>
+        <v>0.1263958572665066</v>
       </c>
       <c r="J7">
-        <v>0.003196467842095372</v>
+        <v>0.1320266053993819</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.21040150908917</v>
+        <v>29.65321533333333</v>
       </c>
       <c r="N7">
-        <v>0.21040150908917</v>
+        <v>88.95964599999999</v>
       </c>
       <c r="O7">
-        <v>0.007585187371513531</v>
+        <v>0.990584245483253</v>
       </c>
       <c r="P7">
-        <v>0.007585187371513531</v>
+        <v>0.9929177316168408</v>
       </c>
       <c r="Q7">
-        <v>0.03666184458943141</v>
+        <v>213.0251306844216</v>
       </c>
       <c r="R7">
-        <v>0.03666184458943141</v>
+        <v>1917.226176159794</v>
       </c>
       <c r="S7">
-        <v>2.424580750931092E-05</v>
+        <v>0.1252057449025514</v>
       </c>
       <c r="T7">
-        <v>2.424580750931092E-05</v>
+        <v>0.1310915575462261</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
         <v>23</v>
       </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.524926738560301</v>
+        <v>7.183879666666667</v>
       </c>
       <c r="H8">
-        <v>0.524926738560301</v>
+        <v>21.551639</v>
       </c>
       <c r="I8">
-        <v>0.009629496357662767</v>
+        <v>0.1263958572665066</v>
       </c>
       <c r="J8">
-        <v>0.009629496357662767</v>
+        <v>0.1320266053993819</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>27.5280706978521</v>
+        <v>0.04031433333333333</v>
       </c>
       <c r="N8">
-        <v>27.5280706978521</v>
+        <v>0.120943</v>
       </c>
       <c r="O8">
-        <v>0.9924148126284865</v>
+        <v>0.001346725574891351</v>
       </c>
       <c r="P8">
-        <v>0.9924148126284865</v>
+        <v>0.001349898011227873</v>
       </c>
       <c r="Q8">
-        <v>14.45022037028089</v>
+        <v>0.2896133195085556</v>
       </c>
       <c r="R8">
-        <v>14.45022037028089</v>
+        <v>2.606519875577</v>
       </c>
       <c r="S8">
-        <v>0.009556454823496588</v>
+        <v>0.0001702205335411213</v>
       </c>
       <c r="T8">
-        <v>0.009556454823496588</v>
+        <v>0.0001782224520577928</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -968,57 +968,57 @@
         <v>24</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.524926738560301</v>
+        <v>7.183879666666667</v>
       </c>
       <c r="H9">
-        <v>0.524926738560301</v>
+        <v>21.551639</v>
       </c>
       <c r="I9">
-        <v>0.009629496357662767</v>
+        <v>0.1263958572665066</v>
       </c>
       <c r="J9">
-        <v>0.009629496357662767</v>
+        <v>0.1320266053993819</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.21040150908917</v>
+        <v>0.211054</v>
       </c>
       <c r="N9">
-        <v>0.21040150908917</v>
+        <v>0.422108</v>
       </c>
       <c r="O9">
-        <v>0.007585187371513531</v>
+        <v>0.007050391163187267</v>
       </c>
       <c r="P9">
-        <v>0.007585187371513531</v>
+        <v>0.00471133302236074</v>
       </c>
       <c r="Q9">
-        <v>0.1104453779543435</v>
+        <v>1.516186539168667</v>
       </c>
       <c r="R9">
-        <v>0.1104453779543435</v>
+        <v>9.097119235012002</v>
       </c>
       <c r="S9">
-        <v>7.304153416617917E-05</v>
+        <v>0.0008911402351352574</v>
       </c>
       <c r="T9">
-        <v>7.304153416617917E-05</v>
+        <v>0.0006220213058482989</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,117 +1027,737 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.08219597134768</v>
+        <v>0.229894</v>
       </c>
       <c r="H10">
-        <v>6.08219597134768</v>
+        <v>0.6896819999999999</v>
       </c>
       <c r="I10">
-        <v>0.1115745867953259</v>
+        <v>0.004044840748830231</v>
       </c>
       <c r="J10">
-        <v>0.1115745867953259</v>
+        <v>0.004225032410066655</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>27.5280706978521</v>
+        <v>0.030493</v>
       </c>
       <c r="N10">
-        <v>27.5280706978521</v>
+        <v>0.091479</v>
       </c>
       <c r="O10">
-        <v>0.9924148126284865</v>
+        <v>0.001018637778668347</v>
       </c>
       <c r="P10">
-        <v>0.9924148126284865</v>
+        <v>0.001021037349570579</v>
       </c>
       <c r="Q10">
-        <v>167.4311206974502</v>
+        <v>0.007010157741999999</v>
       </c>
       <c r="R10">
-        <v>167.4311206974502</v>
+        <v>0.063091419678</v>
       </c>
       <c r="S10">
-        <v>0.1107282726485841</v>
+        <v>4.12022759545564E-06</v>
       </c>
       <c r="T10">
-        <v>0.1107282726485841</v>
+        <v>4.313915893824255E-06</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.229894</v>
+      </c>
+      <c r="H11">
+        <v>0.6896819999999999</v>
+      </c>
+      <c r="I11">
+        <v>0.004044840748830231</v>
+      </c>
+      <c r="J11">
+        <v>0.004225032410066655</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>29.65321533333333</v>
+      </c>
+      <c r="N11">
+        <v>88.95964599999999</v>
+      </c>
+      <c r="O11">
+        <v>0.990584245483253</v>
+      </c>
+      <c r="P11">
+        <v>0.9929177316168408</v>
+      </c>
+      <c r="Q11">
+        <v>6.817096285841332</v>
+      </c>
+      <c r="R11">
+        <v>61.35386657257199</v>
+      </c>
+      <c r="S11">
+        <v>0.00400675552127991</v>
+      </c>
+      <c r="T11">
+        <v>0.004195109596611017</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.229894</v>
+      </c>
+      <c r="H12">
+        <v>0.6896819999999999</v>
+      </c>
+      <c r="I12">
+        <v>0.004044840748830231</v>
+      </c>
+      <c r="J12">
+        <v>0.004225032410066655</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.04031433333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.120943</v>
+      </c>
+      <c r="O12">
+        <v>0.001346725574891351</v>
+      </c>
+      <c r="P12">
+        <v>0.001349898011227873</v>
+      </c>
+      <c r="Q12">
+        <v>0.009268023347333332</v>
+      </c>
+      <c r="R12">
+        <v>0.08341221012599999</v>
+      </c>
+      <c r="S12">
+        <v>5.447290482812354E-06</v>
+      </c>
+      <c r="T12">
+        <v>5.703362847722284E-06</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.229894</v>
+      </c>
+      <c r="H13">
+        <v>0.6896819999999999</v>
+      </c>
+      <c r="I13">
+        <v>0.004044840748830231</v>
+      </c>
+      <c r="J13">
+        <v>0.004225032410066655</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.211054</v>
+      </c>
+      <c r="N13">
+        <v>0.422108</v>
+      </c>
+      <c r="O13">
+        <v>0.007050391163187267</v>
+      </c>
+      <c r="P13">
+        <v>0.00471133302236074</v>
+      </c>
+      <c r="Q13">
+        <v>0.048520048276</v>
+      </c>
+      <c r="R13">
+        <v>0.291120289656</v>
+      </c>
+      <c r="S13">
+        <v>2.851770947205242E-05</v>
+      </c>
+      <c r="T13">
+        <v>1.990553471409141E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.6310036666666666</v>
+      </c>
+      <c r="H14">
+        <v>1.893011</v>
+      </c>
+      <c r="I14">
+        <v>0.01110211377241086</v>
+      </c>
+      <c r="J14">
+        <v>0.011596696488545</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.030493</v>
+      </c>
+      <c r="N14">
+        <v>0.091479</v>
+      </c>
+      <c r="O14">
+        <v>0.001018637778668347</v>
+      </c>
+      <c r="P14">
+        <v>0.001021037349570579</v>
+      </c>
+      <c r="Q14">
+        <v>0.01924119480766667</v>
+      </c>
+      <c r="R14">
+        <v>0.173170753269</v>
+      </c>
+      <c r="S14">
+        <v>1.130903251165186E-05</v>
+      </c>
+      <c r="T14">
+        <v>1.184066024643843E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.6310036666666666</v>
+      </c>
+      <c r="H15">
+        <v>1.893011</v>
+      </c>
+      <c r="I15">
+        <v>0.01110211377241086</v>
+      </c>
+      <c r="J15">
+        <v>0.011596696488545</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>29.65321533333333</v>
+      </c>
+      <c r="N15">
+        <v>88.95964599999999</v>
+      </c>
+      <c r="O15">
+        <v>0.990584245483253</v>
+      </c>
+      <c r="P15">
+        <v>0.9929177316168408</v>
+      </c>
+      <c r="Q15">
+        <v>18.71128760378955</v>
+      </c>
+      <c r="R15">
+        <v>168.401588434106</v>
+      </c>
+      <c r="S15">
+        <v>0.01099757899451284</v>
+      </c>
+      <c r="T15">
+        <v>0.01151456557165508</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.6310036666666666</v>
+      </c>
+      <c r="H16">
+        <v>1.893011</v>
+      </c>
+      <c r="I16">
+        <v>0.01110211377241086</v>
+      </c>
+      <c r="J16">
+        <v>0.011596696488545</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.04031433333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.120943</v>
+      </c>
+      <c r="O16">
+        <v>0.001346725574891351</v>
+      </c>
+      <c r="P16">
+        <v>0.001349898011227873</v>
+      </c>
+      <c r="Q16">
+        <v>0.02543849215255556</v>
+      </c>
+      <c r="R16">
+        <v>0.228946429373</v>
+      </c>
+      <c r="S16">
+        <v>1.49515005526592E-05</v>
+      </c>
+      <c r="T16">
+        <v>1.565435752670015E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>6.08219597134768</v>
-      </c>
-      <c r="H11">
-        <v>6.08219597134768</v>
-      </c>
-      <c r="I11">
-        <v>0.1115745867953259</v>
-      </c>
-      <c r="J11">
-        <v>0.1115745867953259</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>0.21040150908917</v>
-      </c>
-      <c r="N11">
-        <v>0.21040150908917</v>
-      </c>
-      <c r="O11">
-        <v>0.007585187371513531</v>
-      </c>
-      <c r="P11">
-        <v>0.007585187371513531</v>
-      </c>
-      <c r="Q11">
-        <v>1.279703210947622</v>
-      </c>
-      <c r="R11">
-        <v>1.279703210947622</v>
-      </c>
-      <c r="S11">
-        <v>0.0008463141467417463</v>
-      </c>
-      <c r="T11">
-        <v>0.0008463141467417463</v>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.6310036666666666</v>
+      </c>
+      <c r="H17">
+        <v>1.893011</v>
+      </c>
+      <c r="I17">
+        <v>0.01110211377241086</v>
+      </c>
+      <c r="J17">
+        <v>0.011596696488545</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.211054</v>
+      </c>
+      <c r="N17">
+        <v>0.422108</v>
+      </c>
+      <c r="O17">
+        <v>0.007050391163187267</v>
+      </c>
+      <c r="P17">
+        <v>0.00471133302236074</v>
+      </c>
+      <c r="Q17">
+        <v>0.1331758478646667</v>
+      </c>
+      <c r="R17">
+        <v>0.7990550871880001</v>
+      </c>
+      <c r="S17">
+        <v>7.827424483370515E-05</v>
+      </c>
+      <c r="T17">
+        <v>5.463589911677688E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>7.2719705</v>
+      </c>
+      <c r="H18">
+        <v>14.543941</v>
+      </c>
+      <c r="I18">
+        <v>0.1279457602316344</v>
+      </c>
+      <c r="J18">
+        <v>0.08909703616318426</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.030493</v>
+      </c>
+      <c r="N18">
+        <v>0.091479</v>
+      </c>
+      <c r="O18">
+        <v>0.001018637778668347</v>
+      </c>
+      <c r="P18">
+        <v>0.001021037349570579</v>
+      </c>
+      <c r="Q18">
+        <v>0.2217441964565</v>
+      </c>
+      <c r="R18">
+        <v>1.330465178739</v>
+      </c>
+      <c r="S18">
+        <v>0.000130330384992385</v>
+      </c>
+      <c r="T18">
+        <v>9.097140165865171E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>7.2719705</v>
+      </c>
+      <c r="H19">
+        <v>14.543941</v>
+      </c>
+      <c r="I19">
+        <v>0.1279457602316344</v>
+      </c>
+      <c r="J19">
+        <v>0.08909703616318426</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>29.65321533333333</v>
+      </c>
+      <c r="N19">
+        <v>88.95964599999999</v>
+      </c>
+      <c r="O19">
+        <v>0.990584245483253</v>
+      </c>
+      <c r="P19">
+        <v>0.9929177316168408</v>
+      </c>
+      <c r="Q19">
+        <v>215.6373071341476</v>
+      </c>
+      <c r="R19">
+        <v>1293.823842804886</v>
+      </c>
+      <c r="S19">
+        <v>0.1267410543618347</v>
+      </c>
+      <c r="T19">
+        <v>0.08846602704093255</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>7.2719705</v>
+      </c>
+      <c r="H20">
+        <v>14.543941</v>
+      </c>
+      <c r="I20">
+        <v>0.1279457602316344</v>
+      </c>
+      <c r="J20">
+        <v>0.08909703616318426</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.04031433333333333</v>
+      </c>
+      <c r="N20">
+        <v>0.120943</v>
+      </c>
+      <c r="O20">
+        <v>0.001346725574891351</v>
+      </c>
+      <c r="P20">
+        <v>0.001349898011227873</v>
+      </c>
+      <c r="Q20">
+        <v>0.2931646427271667</v>
+      </c>
+      <c r="R20">
+        <v>1.758987856363</v>
+      </c>
+      <c r="S20">
+        <v>0.0001723078275028587</v>
+      </c>
+      <c r="T20">
+        <v>0.0001202719119229803</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>7.2719705</v>
+      </c>
+      <c r="H21">
+        <v>14.543941</v>
+      </c>
+      <c r="I21">
+        <v>0.1279457602316344</v>
+      </c>
+      <c r="J21">
+        <v>0.08909703616318426</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.211054</v>
+      </c>
+      <c r="N21">
+        <v>0.422108</v>
+      </c>
+      <c r="O21">
+        <v>0.007050391163187267</v>
+      </c>
+      <c r="P21">
+        <v>0.00471133302236074</v>
+      </c>
+      <c r="Q21">
+        <v>1.534778461907</v>
+      </c>
+      <c r="R21">
+        <v>6.139113847628001</v>
+      </c>
+      <c r="S21">
+        <v>0.0009020676573043918</v>
+      </c>
+      <c r="T21">
+        <v>0.000419765808670079</v>
       </c>
     </row>
   </sheetData>
